--- a/exploratory_analysis/VIF_data.xlsx
+++ b/exploratory_analysis/VIF_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.13565173752057</v>
+        <v>1.055649933362003</v>
       </c>
     </row>
     <row r="3">
@@ -462,47 +462,47 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.150562426177624</v>
+        <v>1.069351908737812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dermatological symptoms</t>
+          <t>Motor function</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.17623633471115</v>
+        <v>1.332338024332296</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Arthralgia</t>
+          <t>Dermatological symptoms</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.27486470866504</v>
+        <v>1.08127001191637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Urinary function impairment</t>
+          <t>Arthralgia</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.615866795971315</v>
+        <v>1.134161850216428</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Psychiatric symptoms</t>
+          <t>Urinary function impairment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.172016725968094</v>
+        <v>1.63706327914107</v>
       </c>
     </row>
     <row r="8">
@@ -512,67 +512,47 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.181052770946724</v>
+        <v>1.171526008238892</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lower limb paresthesia</t>
+          <t>Paresthesia</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.218996359127475</v>
+        <v>1.165442856382306</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lower limb paresis weakness</t>
+          <t>Lower back spine pain</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.362085343457339</v>
+        <v>1.314918936897601</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lower back spine pain</t>
+          <t>Limbs paresis or weakness</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.335594576845705</v>
+        <v>1.402443153044091</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Upper limb neuropathy</t>
+          <t>CD39-Diplotypes</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.325308107325033</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Motor function</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.387687083964493</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CD39-Diplotypes</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1.078967028032034</v>
+        <v>1.033543457305548</v>
       </c>
     </row>
   </sheetData>
